--- a/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H2">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J2">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N2">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P2">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q2">
-        <v>2.131831645913173</v>
+        <v>3.247083315916222</v>
       </c>
       <c r="R2">
-        <v>2.131831645913173</v>
+        <v>29.223749843246</v>
       </c>
       <c r="S2">
-        <v>0.3532968849928845</v>
+        <v>0.2851125040664471</v>
       </c>
       <c r="T2">
-        <v>0.3532968849928845</v>
+        <v>0.2851125040664471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H3">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J3">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N3">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P3">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q3">
-        <v>0.6044301698955337</v>
+        <v>0.8882244856857779</v>
       </c>
       <c r="R3">
-        <v>0.6044301698955337</v>
+        <v>7.994020371172001</v>
       </c>
       <c r="S3">
-        <v>0.1001689306138152</v>
+        <v>0.07799119475797833</v>
       </c>
       <c r="T3">
-        <v>0.1001689306138152</v>
+        <v>0.07799119475797835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H4">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J4">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N4">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P4">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q4">
-        <v>0.8708924209041987</v>
+        <v>1.506546238274111</v>
       </c>
       <c r="R4">
-        <v>0.8708924209041987</v>
+        <v>13.558916144467</v>
       </c>
       <c r="S4">
-        <v>0.1443282728536328</v>
+        <v>0.1322833844086372</v>
       </c>
       <c r="T4">
-        <v>0.1443282728536328</v>
+        <v>0.1322833844086372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.75547076165297</v>
+        <v>2.525153666666667</v>
       </c>
       <c r="H5">
-        <v>1.75547076165297</v>
+        <v>7.575461000000001</v>
       </c>
       <c r="I5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484796</v>
       </c>
       <c r="J5">
-        <v>0.7903289769759005</v>
+        <v>0.7378191762484798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.661803308382329</v>
+        <v>1.093401</v>
       </c>
       <c r="N5">
-        <v>0.661803308382329</v>
+        <v>3.280203</v>
       </c>
       <c r="O5">
-        <v>0.243613601581812</v>
+        <v>0.328579279069553</v>
       </c>
       <c r="P5">
-        <v>0.243613601581812</v>
+        <v>0.3285792790695531</v>
       </c>
       <c r="Q5">
-        <v>1.161776357830382</v>
+        <v>2.761005544287</v>
       </c>
       <c r="R5">
-        <v>1.161776357830382</v>
+        <v>24.849049898583</v>
       </c>
       <c r="S5">
-        <v>0.1925348885155681</v>
+        <v>0.2424320930154169</v>
       </c>
       <c r="T5">
-        <v>0.1925348885155681</v>
+        <v>0.242432093015417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H6">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J6">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.21439313743159</v>
+        <v>1.285895333333333</v>
       </c>
       <c r="N6">
-        <v>1.21439313743159</v>
+        <v>3.857686</v>
       </c>
       <c r="O6">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="P6">
-        <v>0.4470250937081073</v>
+        <v>0.3864259878905995</v>
       </c>
       <c r="Q6">
-        <v>0.5655661567972533</v>
+        <v>0.480893564546889</v>
       </c>
       <c r="R6">
-        <v>0.5655661567972533</v>
+        <v>4.328042080922001</v>
       </c>
       <c r="S6">
-        <v>0.09372820871522282</v>
+        <v>0.0422252079906103</v>
       </c>
       <c r="T6">
-        <v>0.09372820871522282</v>
+        <v>0.04222520799061032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H7">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J7">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.344312296791771</v>
+        <v>0.3517506666666667</v>
       </c>
       <c r="N7">
-        <v>0.344312296791771</v>
+        <v>1.055252</v>
       </c>
       <c r="O7">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="P7">
-        <v>0.1267433354109065</v>
+        <v>0.1057050253891921</v>
       </c>
       <c r="Q7">
-        <v>0.160352835035291</v>
+        <v>0.1315461900671111</v>
       </c>
       <c r="R7">
-        <v>0.160352835035291</v>
+        <v>1.183915710604</v>
       </c>
       <c r="S7">
-        <v>0.02657440479709135</v>
+        <v>0.01155050856459222</v>
       </c>
       <c r="T7">
-        <v>0.02657440479709135</v>
+        <v>0.01155050856459222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.465719164053752</v>
+        <v>0.3739756666666667</v>
       </c>
       <c r="H8">
-        <v>0.465719164053752</v>
+        <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000877</v>
       </c>
       <c r="J8">
-        <v>0.2096710230240995</v>
+        <v>0.1092711394000878</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.496101923158297</v>
+        <v>0.5966156666666667</v>
       </c>
       <c r="N8">
-        <v>0.496101923158297</v>
+        <v>1.789847</v>
       </c>
       <c r="O8">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="P8">
-        <v>0.1826179692991742</v>
+        <v>0.1792897076506553</v>
       </c>
       <c r="Q8">
-        <v>0.2310441729387408</v>
+        <v>0.2231197416854445</v>
       </c>
       <c r="R8">
-        <v>0.2310441729387408</v>
+        <v>2.008077675169</v>
       </c>
       <c r="S8">
-        <v>0.03828969644554146</v>
+        <v>0.01959119063769573</v>
       </c>
       <c r="T8">
-        <v>0.03828969644554146</v>
+        <v>0.01959119063769573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3739756666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.121927</v>
+      </c>
+      <c r="I9">
+        <v>0.1092711394000877</v>
+      </c>
+      <c r="J9">
+        <v>0.1092711394000878</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.093401</v>
+      </c>
+      <c r="N9">
+        <v>3.280203</v>
+      </c>
+      <c r="O9">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P9">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q9">
+        <v>0.408905367909</v>
+      </c>
+      <c r="R9">
+        <v>3.680148311181</v>
+      </c>
+      <c r="S9">
+        <v>0.03590423220718946</v>
+      </c>
+      <c r="T9">
+        <v>0.03590423220718948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.56998</v>
+      </c>
+      <c r="I10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J10">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.285895333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.857686</v>
+      </c>
+      <c r="O10">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="P10">
+        <v>0.3864259878905995</v>
+      </c>
+      <c r="Q10">
+        <v>0.6729433184755556</v>
+      </c>
+      <c r="R10">
+        <v>6.05648986628</v>
+      </c>
+      <c r="S10">
+        <v>0.05908827583354208</v>
+      </c>
+      <c r="T10">
+        <v>0.05908827583354209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="H9">
-        <v>0.465719164053752</v>
-      </c>
-      <c r="I9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="J9">
-        <v>0.2096710230240995</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.661803308382329</v>
-      </c>
-      <c r="N9">
-        <v>0.661803308382329</v>
-      </c>
-      <c r="O9">
-        <v>0.243613601581812</v>
-      </c>
-      <c r="P9">
-        <v>0.243613601581812</v>
-      </c>
-      <c r="Q9">
-        <v>0.3082144835478257</v>
-      </c>
-      <c r="R9">
-        <v>0.3082144835478257</v>
-      </c>
-      <c r="S9">
-        <v>0.05107871306624392</v>
-      </c>
-      <c r="T9">
-        <v>0.05107871306624392</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.56998</v>
+      </c>
+      <c r="I11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J11">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3517506666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.055252</v>
+      </c>
+      <c r="O11">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="P11">
+        <v>0.1057050253891921</v>
+      </c>
+      <c r="Q11">
+        <v>0.1840805038844444</v>
+      </c>
+      <c r="R11">
+        <v>1.65672453496</v>
+      </c>
+      <c r="S11">
+        <v>0.01616332206662153</v>
+      </c>
+      <c r="T11">
+        <v>0.01616332206662154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.56998</v>
+      </c>
+      <c r="I12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J12">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5966156666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.789847</v>
+      </c>
+      <c r="O12">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="P12">
+        <v>0.1792897076506553</v>
+      </c>
+      <c r="Q12">
+        <v>0.3122248881177777</v>
+      </c>
+      <c r="R12">
+        <v>2.81002399306</v>
+      </c>
+      <c r="S12">
+        <v>0.02741513260432233</v>
+      </c>
+      <c r="T12">
+        <v>0.02741513260432233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5233266666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.56998</v>
+      </c>
+      <c r="I13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="J13">
+        <v>0.1529096843514326</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.093401</v>
+      </c>
+      <c r="N13">
+        <v>3.280203</v>
+      </c>
+      <c r="O13">
+        <v>0.328579279069553</v>
+      </c>
+      <c r="P13">
+        <v>0.3285792790695531</v>
+      </c>
+      <c r="Q13">
+        <v>0.5722059006599999</v>
+      </c>
+      <c r="R13">
+        <v>5.149853105939999</v>
+      </c>
+      <c r="S13">
+        <v>0.05024295384694664</v>
+      </c>
+      <c r="T13">
+        <v>0.05024295384694665</v>
       </c>
     </row>
   </sheetData>
